--- a/Sudha/CalculatorRE_Queues/Data/Input/input.xlsx
+++ b/Sudha/CalculatorRE_Queues/Data/Input/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\UiPath\RPA-Developer-in-30-Days\RPA-Developer-in-30-Days\Sudha\CalculatorRE_Queues\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C64FF0A-37C9-48D4-B83C-C8A015E97854}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF4DB7E-D717-4053-A52E-FE0972056004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Sudha/CalculatorRE_Queues/Data/Input/input.xlsx
+++ b/Sudha/CalculatorRE_Queues/Data/Input/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gebruiker\Documents\UiPath\RPA-Developer-in-30-Days\RPA-Developer-in-30-Days\Sudha\CalculatorRE_Queues\Data\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBF4DB7E-D717-4053-A52E-FE0972056004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F485D5A1-7644-428E-8084-1953DE06C4EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10140" yWindow="1464" windowWidth="12336" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
